--- a/feuille de monte.xlsx
+++ b/feuille de monte.xlsx
@@ -5,38 +5,51 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoancucchi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoancucchi/Desktop/script python/Fun/Horse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01524BD8-F07E-EB48-AFF2-81A92B2BB608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A15507-A6EE-F148-8E35-300081877AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="700" windowWidth="26740" windowHeight="16260" activeTab="1" xr2:uid="{E980E3C6-E5FB-2741-936F-F76B43983B21}"/>
+    <workbookView xWindow="140" yWindow="700" windowWidth="26740" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mercredi" sheetId="2" r:id="rId1"/>
-    <sheet name="Samedi" sheetId="1" r:id="rId2"/>
+    <sheet name="Mercredi" sheetId="1" r:id="rId1"/>
+    <sheet name="Samedi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
+    <t>10H Céline</t>
+  </si>
+  <si>
+    <t>10H Julien</t>
+  </si>
+  <si>
+    <t>11H15 Julien</t>
+  </si>
+  <si>
+    <t>14h Céline</t>
+  </si>
+  <si>
+    <t>14H Julien</t>
+  </si>
+  <si>
+    <t>15h15 Céline</t>
+  </si>
+  <si>
+    <t>15H15 Julien</t>
+  </si>
+  <si>
+    <t>16H30 Céline</t>
+  </si>
+  <si>
+    <t>16H30 Julien</t>
+  </si>
+  <si>
     <t>MANEL</t>
   </si>
   <si>
@@ -100,34 +113,7 @@
     <t>FLOC</t>
   </si>
   <si>
-    <t>10H Céline</t>
-  </si>
-  <si>
-    <t>10H Julien</t>
-  </si>
-  <si>
     <t>11H15 Céline</t>
-  </si>
-  <si>
-    <t>14h Céline</t>
-  </si>
-  <si>
-    <t>15h15 Céline</t>
-  </si>
-  <si>
-    <t>16H30 Céline</t>
-  </si>
-  <si>
-    <t>11H15 Julien</t>
-  </si>
-  <si>
-    <t>14H Julien</t>
-  </si>
-  <si>
-    <t>15H15 Julien</t>
-  </si>
-  <si>
-    <t>16H30 Julien</t>
   </si>
 </sst>
 </file>
@@ -190,19 +176,18 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyFill="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyFill="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Style 1" xfId="1" xr:uid="{1F1C09F3-07D3-744E-9608-481766E0D7BB}"/>
-    <cellStyle name="Style 2" xfId="2" xr:uid="{F948438D-5368-CC44-B84A-17D3D3A5E286}"/>
+    <cellStyle name="Style 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Style 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,11 +498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCAC39D-3F3B-924D-BC0C-5B6921E19B8F}">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -525,36 +510,36 @@
     <row r="1" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -568,7 +553,7 @@
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -582,7 +567,7 @@
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -596,7 +581,7 @@
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -610,7 +595,7 @@
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -624,7 +609,7 @@
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -638,7 +623,7 @@
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -652,7 +637,7 @@
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -678,7 +663,7 @@
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -692,7 +677,7 @@
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -706,7 +691,7 @@
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -720,7 +705,7 @@
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -734,7 +719,7 @@
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -748,7 +733,7 @@
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -762,7 +747,7 @@
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -788,7 +773,7 @@
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -802,7 +787,7 @@
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -816,7 +801,7 @@
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -830,7 +815,7 @@
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -844,7 +829,7 @@
     </row>
     <row r="23" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -858,7 +843,7 @@
     </row>
     <row r="24" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -870,29 +855,17 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0964BE50-B4E6-2444-8261-5DE8F914C2BB}">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -900,39 +873,39 @@
     <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -947,7 +920,7 @@
     </row>
     <row r="3" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -962,7 +935,7 @@
     </row>
     <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -977,7 +950,7 @@
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -992,7 +965,7 @@
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1007,7 +980,7 @@
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1022,7 +995,7 @@
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1037,7 +1010,7 @@
     </row>
     <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1065,7 +1038,7 @@
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1080,7 +1053,7 @@
     </row>
     <row r="12" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1095,7 +1068,7 @@
     </row>
     <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1110,7 +1083,7 @@
     </row>
     <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1125,7 +1098,7 @@
     </row>
     <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1140,7 +1113,7 @@
     </row>
     <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1155,7 +1128,7 @@
     </row>
     <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1183,7 +1156,7 @@
     </row>
     <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1198,7 +1171,7 @@
     </row>
     <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1213,7 +1186,7 @@
     </row>
     <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1228,7 +1201,7 @@
     </row>
     <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1243,7 +1216,7 @@
     </row>
     <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1258,7 +1231,7 @@
     </row>
     <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1271,19 +1244,6 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
